--- a/ExOrder.xlsx
+++ b/ExOrder.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Order Id</t>
   </si>
@@ -37,42 +37,19 @@
     <t>Detail</t>
   </si>
   <si>
-    <t>nam nguyen</t>
-  </si>
-  <si>
-    <t>ha noi</t>
-  </si>
-  <si>
-    <t>Tue Feb 23 00:26:01 +07 2021</t>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>số 7 hồ thuyền quang</t>
+  </si>
+  <si>
+    <t>Sat Mar 20 09:36:26 +07 2021</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
     <t>0987654321</t>
-  </si>
-  <si>
-    <t>Name Product : Pre-Packed Radishes 
-Is Sale : No 
-Price : 1.000000
-Quantity : 5
-Name Product : Green Courgettes 
-Is Sale : No 
-Price : 1.000000
-Quantity : 4
-</t>
-  </si>
-  <si>
-    <t>Tue Feb 23 00:26:18 +07 2021</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>số 7 hồ thuyền quang</t>
-  </si>
-  <si>
-    <t>Sat Mar 20 09:36:26 +07 2021</t>
   </si>
   <si>
     <t>Name Product : Purple Sprouting Broccoli 200g 
@@ -451,7 +428,7 @@
     </row>
     <row r="2" ht="100" customHeight="true">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -472,73 +449,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="100" customHeight="true">
+    <row r="3" ht="50" customHeight="true">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="100" customHeight="true">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="50" customHeight="true">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
